--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F21BCA-288D-A047-AE0B-8C357E4D1124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="28800" yWindow="-10620" windowWidth="60160" windowHeight="33340" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
     <sheet name="Fases" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Fase</t>
-  </si>
-  <si>
-    <t>Padronizar o arquivo de Laudo</t>
-  </si>
-  <si>
-    <t>Coleta de dados do DB-legal e estruturação de modelos</t>
-  </si>
-  <si>
-    <t>Entrega e adequação</t>
   </si>
   <si>
     <t>Tempo gasto</t>
@@ -68,13 +59,37 @@
     <t>Consolidado fase 1</t>
   </si>
   <si>
-    <t>Estimado</t>
-  </si>
-  <si>
     <t>Gasto</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Fase 1</t>
+  </si>
+  <si>
+    <t>Fase 2</t>
+  </si>
+  <si>
+    <t>Fase 3</t>
+  </si>
+  <si>
+    <t>Total Estimado</t>
+  </si>
+  <si>
+    <t>Total Gasto</t>
+  </si>
+  <si>
+    <t>Estimado2</t>
+  </si>
+  <si>
+    <t>Estimado22</t>
+  </si>
+  <si>
+    <t>Gasto2</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -82,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -134,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -214,11 +229,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -230,7 +254,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -248,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -257,18 +281,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
@@ -301,7 +472,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="[h]:mm"/>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -343,17 +514,13 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -363,7 +530,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="[h]:mm"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -376,25 +547,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
@@ -450,6 +602,25 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -464,19 +635,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="14" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="13" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado fase 1" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="19" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="18" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado fase 1" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -485,18 +656,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:K7" totalsRowShown="0">
-  <autoFilter ref="H3:K7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Fase" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
+  <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Fase" dataDxfId="13">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Gasto" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="12">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="9">
-      <calculatedColumnFormula>Tabela3[[#This Row],[Estimado]]-Tabela3[[#This Row],[Gasto]]</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="2">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="0">
+      <calculatedColumnFormula>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="1">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="11">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -811,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,12 +1003,13 @@
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -835,24 +1017,24 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
         <v>2.7777777777777776E-2</v>
@@ -869,13 +1051,28 @@
         <f>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.805555555555555E-2</v>
+      </c>
       <c r="D3" s="2">
         <f>IF(B3 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="E3" s="2">
         <f>IF(B3 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -889,21 +1086,40 @@
         <v>3</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="D4" s="2">
         <f>IF(B4 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="E4" s="2">
         <f>IF(B4 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -915,26 +1131,45 @@
       </c>
       <c r="H4" s="13" t="str">
         <f>Fases!A2</f>
-        <v>Padronizar o arquivo de Laudo</v>
+        <v>Fase 1</v>
       </c>
       <c r="I4" s="14">
-        <v>0.41666666666666669</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.2590277777777778</v>
       </c>
       <c r="K4" s="14">
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="14">
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+        <v>0.57430555555555562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="D5" s="2">
         <f>IF(B5 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E5" s="2">
         <f>IF(B5 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -946,7 +1181,7 @@
       </c>
       <c r="H5" s="13" t="str">
         <f>Fases!A3</f>
-        <v>Coleta de dados do DB-legal e estruturação de modelos</v>
+        <v>Fase 2</v>
       </c>
       <c r="I5" s="14">
         <v>2.0833333333333335</v>
@@ -956,16 +1191,36 @@
         <v>0</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" ref="K5:K6" si="0">I5 - J5</f>
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="L5" s="14">
+        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A2)</f>
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="M5" s="14">
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="D6" s="2">
         <f>IF(B6 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="E6" s="2">
         <f>IF(B6 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -977,7 +1232,7 @@
       </c>
       <c r="H6" s="13" t="str">
         <f>Fases!A4</f>
-        <v>Entrega e adequação</v>
+        <v>Fase 3</v>
       </c>
       <c r="I6" s="14">
         <v>0.83333333333333337</v>
@@ -987,11 +1242,24 @@
         <v>0</v>
       </c>
       <c r="K6" s="14">
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L6" s="14">
+        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A3)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2">
@@ -1007,8 +1275,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A4)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2">
@@ -1024,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2">
@@ -1040,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2">
@@ -1056,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2">
@@ -1072,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2">
@@ -1088,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2">
@@ -1104,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -1120,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2">
@@ -1136,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2">
@@ -4567,7 +4842,7 @@
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.2590277777777778</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
@@ -4579,10 +4854,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$K$4&lt; 0</formula>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$O$4&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4592,7 +4871,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0312C495-5F39-BA42-BED8-CAB7B20EFFDC}">
           <x14:formula1>
             <xm:f>Fases!$A$2:$A$4</xm:f>
@@ -4616,7 +4895,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4634,7 +4913,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4642,7 +4921,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4650,7 +4929,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF730637-D93E-4C81-AC8B-78A55549A07B}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10620" windowWidth="60160" windowHeight="33340" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-24120" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Programador</t>
   </si>
@@ -87,9 +89,6 @@
   </si>
   <si>
     <t>Gasto2</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
 </sst>
 </file>
@@ -293,6 +292,81 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -402,11 +476,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -440,81 +509,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
@@ -621,6 +615,11 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -635,19 +634,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="19" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="18" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="17" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado fase 1" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado fase 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -659,24 +658,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Fase" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Fase" dataDxfId="12">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="0">
-      <calculatedColumnFormula>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A1)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
+      <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -994,11 +993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1009,7 +1008,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1059,7 @@
       </c>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1138,26 +1137,30 @@
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.2590277777777778</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="K4" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>18</v>
+      <c r="L4" s="14">
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Cesar")</f>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M4" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="14">
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Leonardo")</f>
+        <v>0.14791666666666667</v>
+      </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.57430555555555562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.51875000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1195,20 +1198,23 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="L5" s="14">
-        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A2)</f>
-        <v>0.2590277777777778</v>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Cesar")</f>
+        <v>0</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14">
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Leonardo")</f>
+        <v>0</v>
+      </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1216,11 +1222,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>4.8611111111111112E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="D6" s="2">
         <f>IF(B6 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>4.8611111111111112E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E6" s="2">
         <f>IF(B6 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1246,20 +1252,23 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L6" s="14">
-        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A3)</f>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Cesar")</f>
         <v>0</v>
       </c>
       <c r="M6" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="14">
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Leonardo")</f>
+        <v>0</v>
+      </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2">
@@ -1276,14 +1285,11 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <f>SUMIFS(Tabela2[[#Data],[#Totals],[Tempo gasto]],Tabela2[[#Data],[#Totals],[Fase]],Fases!A4)</f>
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2">
@@ -1299,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2">
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2">
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2">
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2">
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2">
@@ -1379,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -1395,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2">
@@ -1411,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2">
@@ -1427,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2">
@@ -1443,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1459,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1475,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1491,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1581,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1596,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1626,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1641,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1671,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1776,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1806,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1821,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1851,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1866,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1896,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1926,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1941,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1986,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2001,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2016,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2031,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2061,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2076,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2091,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2106,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2121,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2166,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2196,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2211,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2271,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2286,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2316,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2361,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2391,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2406,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2421,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2436,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2481,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2496,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2526,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2556,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2616,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2661,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2676,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2691,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2721,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2751,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2781,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2871,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2886,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2901,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2916,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2946,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2976,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3021,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3051,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3066,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3111,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3126,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3141,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3156,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3171,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3186,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3216,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3246,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3261,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3276,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3291,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3321,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3336,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3366,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3381,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3411,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3426,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3441,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3456,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3471,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3486,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3501,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3516,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3531,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3546,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3561,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3576,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3606,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3621,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3636,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3651,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3666,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3681,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3696,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3726,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3756,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3801,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3816,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3846,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3861,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3876,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3891,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3921,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3936,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3951,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3966,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3981,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3996,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4011,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4041,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4056,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4071,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4086,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4101,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4116,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4131,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4146,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4176,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4191,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4206,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4221,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4236,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4251,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4266,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4281,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4296,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4311,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4326,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4341,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4356,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4371,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4386,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4401,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4416,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4431,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4446,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4461,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4491,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4506,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4521,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4536,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4566,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4581,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4596,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4611,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4626,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4641,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4656,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4671,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4686,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4701,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4716,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4731,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4746,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4761,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4776,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4791,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4806,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4821,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4836,13 +4842,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.2590277777777778</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
@@ -4860,7 +4866,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$O$4&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4898,12 +4904,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF730637-D93E-4C81-AC8B-78A55549A07B}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FE372E4-9B7D-467D-B53E-52FCC3531C7E}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="28680" yWindow="2445" windowWidth="21840" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Programador</t>
   </si>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,8 +127,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +151,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -284,6 +314,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1090,16 +1132,16 @@
       <c r="J3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -1137,27 +1179,27 @@
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.31458333333333333</v>
-      </c>
-      <c r="K4" s="14">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="K4" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Cesar")</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="M4" s="14">
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="M4" s="18">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="18">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Leonardo")</f>
         <v>0.14791666666666667</v>
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.51875000000000004</v>
+        <v>0.41458333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1247,19 +1289,19 @@
         <f t="shared" ref="J6" si="1">F244</f>
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Cesar")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="18">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="18">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Leonardo")</f>
         <v>0</v>
       </c>
@@ -1269,11 +1311,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="D7" s="2">
         <f>IF(B7 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E7" s="2">
         <f>IF(B7 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4848,7 +4897,7 @@
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.31458333333333333</v>
+        <v>0.41875000000000001</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
@@ -4877,7 +4926,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0312C495-5F39-BA42-BED8-CAB7B20EFFDC}">
           <x14:formula1>
             <xm:f>Fases!$A$2:$A$4</xm:f>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FE372E4-9B7D-467D-B53E-52FCC3531C7E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C4D4C6-C11A-4C47-B6BB-4908F68595A4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2445" windowWidth="21840" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Programador</t>
   </si>
@@ -313,9 +313,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +323,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1092,14 +1092,14 @@
         <f>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1132,16 +1132,16 @@
       <c r="J3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="K4" s="17">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="K4" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Cesar")</f>
-        <v>0.27083333333333337</v>
-      </c>
-      <c r="M4" s="18">
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="M4" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Leonardo")</f>
-        <v>0.14791666666666667</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.41458333333333336</v>
+        <v>0.33125000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1289,19 +1289,19 @@
         <f t="shared" ref="J6" si="1">F244</f>
         <v>0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Cesar")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Leonardo")</f>
         <v>0</v>
       </c>
@@ -1339,11 +1339,18 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D8" s="2">
         <f>IF(B8 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="2">
         <f>IF(B8 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1355,11 +1362,18 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D9" s="2">
         <f>IF(B9 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E9" s="2">
         <f>IF(B9 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4897,7 +4911,7 @@
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.41875000000000001</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C4D4C6-C11A-4C47-B6BB-4908F68595A4}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3978FFF-89BF-4D57-8391-2D9141CEEAED}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2445" windowWidth="21840" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Programador</t>
   </si>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.50208333333333333</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="K4" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="L4" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Cesar")</f>
-        <v>0.31250000000000006</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="M4" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.33125000000000004</v>
+        <v>0.22708333333333341</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1385,11 +1385,18 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="D10" s="2">
         <f>IF(B10 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E10" s="2">
         <f>IF(B10 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4911,7 +4918,7 @@
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.50208333333333333</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{20EB21E8-C815-C542-BFAD-B7901E185A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3978FFF-89BF-4D57-8391-2D9141CEEAED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Programador</t>
   </si>
@@ -1036,10 +1034,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1050,7 +1048,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1099,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1177,7 @@
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.60624999999999996</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="K4" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1195,14 +1193,14 @@
       </c>
       <c r="N4" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Leonardo")</f>
-        <v>0.18958333333333333</v>
+        <v>0.3979166666666667</v>
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.22708333333333341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.8750000000000044E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1336,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1407,12 +1405,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D11" s="2">
         <f>IF(B11 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E11" s="2">
         <f>IF(B11 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1423,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2">
@@ -1439,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2">
@@ -1455,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -1471,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2">
@@ -1487,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2">
@@ -1503,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2">
@@ -1519,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1535,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1551,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1567,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1582,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1597,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1612,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1627,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1642,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1657,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1672,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1687,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1702,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1717,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1732,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1747,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1762,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1777,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1792,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1807,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1822,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1837,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1852,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1867,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1882,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1897,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1912,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1927,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1942,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1957,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1972,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1987,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2002,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2017,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2032,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2047,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2062,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2077,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2092,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2107,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2122,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2137,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2152,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2167,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2182,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2197,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2212,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2227,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2242,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2257,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2272,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2287,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2302,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2317,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2332,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2347,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2362,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2377,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2392,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2407,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2422,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2437,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2452,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2467,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2482,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2497,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2512,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2527,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2542,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2557,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2572,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2587,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2602,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2617,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2632,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2647,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2662,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2677,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2692,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2707,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2722,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2737,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2752,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2767,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2782,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2797,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2827,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2842,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2857,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2872,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2887,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2902,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2917,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2932,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2947,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2962,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2977,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2992,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3007,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3022,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3037,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3052,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3067,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3082,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3097,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3112,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3127,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3142,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3157,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3172,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3187,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3202,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3217,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3232,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3247,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3262,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3277,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3292,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3307,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3322,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3337,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3352,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3367,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3382,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3397,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3412,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3427,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3442,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3457,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3472,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3487,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3502,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3517,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3532,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3547,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3562,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3577,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3592,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3607,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3622,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3637,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3652,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3667,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3682,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3697,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3712,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3727,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3742,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3757,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3772,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3787,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3802,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3817,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3832,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3847,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3862,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3877,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3892,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3907,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3922,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3937,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3952,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3967,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3982,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3997,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4012,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4027,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4042,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4057,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4072,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4087,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4102,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4117,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4132,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4147,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4162,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4177,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4192,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4207,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4222,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4237,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4252,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4267,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4282,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4297,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4312,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4327,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4342,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4357,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4372,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4387,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4402,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4417,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4432,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4447,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4462,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4477,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4492,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4507,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4522,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4537,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4552,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4567,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4582,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4597,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4612,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4627,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4642,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4657,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4672,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4687,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4702,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4717,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4732,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4747,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4762,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4777,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4792,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4807,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4822,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4837,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4852,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4867,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4882,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4897,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4912,13 +4917,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.60624999999999996</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
@@ -4974,12 +4979,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAACBEED-09CE-4DAF-A75C-D8308DFDCF34}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Programador</t>
   </si>
@@ -54,9 +56,6 @@
   </si>
   <si>
     <t>Consolidado fase 2</t>
-  </si>
-  <si>
-    <t>Consolidado fase 1</t>
   </si>
   <si>
     <t>Gasto</t>
@@ -87,6 +86,21 @@
   </si>
   <si>
     <t>Gasto2</t>
+  </si>
+  <si>
+    <t>Consolidado Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
   </si>
 </sst>
 </file>
@@ -680,7 +694,7 @@
     <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
     <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado fase 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
@@ -698,7 +712,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Fase" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
@@ -1034,10 +1048,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1048,7 +1062,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
@@ -1068,19 +1082,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D2" s="2">
         <f>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1099,19 +1113,19 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="D3" s="2">
         <f>IF(B3 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>6.805555555555555E-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f>IF(B3 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1122,43 +1136,43 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="N3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D4" s="2">
         <f>IF(B4 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>5.2083333333333336E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>IF(B4 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1168,23 +1182,22 @@
         <f>IF(B4 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="13" t="str">
-        <f>Fases!A2</f>
-        <v>Fase 1</v>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="14">
         <v>0.83333333333333337</v>
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0.81458333333333333</v>
+        <v>0</v>
       </c>
       <c r="K4" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="L4" s="16">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Cesar")</f>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 1",$A$2:$A$200,"Cesar")</f>
         <v>0.41666666666666674</v>
       </c>
       <c r="M4" s="17">
@@ -1192,27 +1205,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N4" s="17">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1",$A$2:$A$200,"Leonardo")</f>
-        <v>0.3979166666666667</v>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 1",$A$2:$A$200,"Leonardo")</f>
+        <v>0.41875000000000001</v>
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>1.8750000000000044E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="D5" s="2">
         <f>IF(B5 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>IF(B5 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1222,12 +1235,11 @@
         <f>IF(B5 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="13" t="str">
-        <f>Fases!A3</f>
-        <v>Fase 2</v>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="14">
-        <v>2.0833333333333335</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J5" s="14">
         <f>E244</f>
@@ -1235,7 +1247,7 @@
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
-        <v>1.0416666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Cesar")</f>
@@ -1243,7 +1255,7 @@
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
-        <v>1.0416666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Leonardo")</f>
@@ -1251,22 +1263,22 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D6" s="2">
         <f>IF(B6 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0.10416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>IF(B6 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1276,9 +1288,8 @@
         <f>IF(B6 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="str">
-        <f>Fases!A4</f>
-        <v>Fase 3</v>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="14">
         <v>0.83333333333333337</v>
@@ -1308,19 +1319,19 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D7" s="2">
         <f>IF(B7 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0.10416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <f>IF(B7 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1336,19 +1347,19 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D8" s="2">
         <f>IF(B8 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <f>IF(B8 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1359,19 +1370,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D9" s="2">
         <f>IF(B9 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <f>IF(B9 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1382,19 +1393,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D10" s="2">
         <f>IF(B10 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0.10416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <f>IF(B10 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1405,19 +1416,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>0.20833333333333334</v>
       </c>
       <c r="D11" s="2">
         <f>IF(B11 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0.20833333333333334</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <f>IF(B11 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1428,9 +1439,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D12" s="2">
         <f>IF(B12 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1444,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2">
@@ -1460,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -1476,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2">
@@ -1492,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2">
@@ -1508,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2">
@@ -1524,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1540,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1556,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1572,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1587,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1602,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1617,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1632,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1647,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1662,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1677,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1692,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1707,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1722,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1737,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1752,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1767,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1782,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1797,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1812,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1827,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1842,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1857,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1872,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1887,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1902,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1917,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1932,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1947,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1962,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1977,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1992,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2007,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2022,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2037,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2052,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2067,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2082,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2097,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2112,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2127,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2142,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2157,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2172,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2187,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2202,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2217,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2232,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2247,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2262,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2277,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2292,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2307,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2322,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2337,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2352,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2367,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2382,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2412,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2427,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2442,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2457,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2472,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2487,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2502,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2517,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2532,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2547,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2562,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2577,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2592,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2607,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2622,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2637,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2652,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2667,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2682,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2697,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2712,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2727,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2757,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2772,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2787,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2802,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2817,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2832,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2847,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2862,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2877,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2892,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2907,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2922,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2937,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2952,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2967,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2982,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2997,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3012,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3027,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3042,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3057,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3072,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3087,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3102,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3117,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3132,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3147,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3162,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3177,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3192,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3207,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3222,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3237,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3252,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3267,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3282,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3297,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3312,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3327,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3342,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3357,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3372,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3387,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3402,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3417,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3432,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3447,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3462,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3477,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3492,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3507,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3522,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3537,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3552,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3567,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3582,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3597,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3612,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3627,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3642,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3657,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3672,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3687,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3702,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3717,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3732,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3747,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3762,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3777,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3792,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3807,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3822,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3837,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3852,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3867,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3882,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3897,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3912,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3927,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3942,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3957,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3972,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3987,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4002,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4017,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4032,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4047,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4062,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4077,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4092,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4107,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4122,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4137,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4152,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4167,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4182,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4197,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4212,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4227,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4242,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4257,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4272,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4287,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4302,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4317,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4332,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4347,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4362,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4377,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4392,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4407,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4422,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4437,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4452,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4467,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4482,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4497,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4512,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4527,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4542,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4557,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4572,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4587,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4602,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4617,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4632,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4647,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4662,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4677,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4692,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4707,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4722,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4737,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4752,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4767,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4782,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4797,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4812,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4827,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4842,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4857,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4872,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4887,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4902,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4917,13 +4935,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
       <c r="D244" s="12">
-        <f>SUBTOTAL(109,Tabela2[Consolidado fase 1])</f>
-        <v>0.81458333333333333</v>
+        <f>SUBTOTAL(109,Tabela2[Consolidado Semana 1])</f>
+        <v>0</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
@@ -4979,12 +4997,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4992,25 +5010,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAACBEED-09CE-4DAF-A75C-D8308DFDCF34}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BCC9C3-F8C5-4A62-9217-F23AC5754FDF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Fase 1</t>
-  </si>
-  <si>
-    <t>Fase 2</t>
-  </si>
-  <si>
-    <t>Fase 3</t>
   </si>
   <si>
     <t>Total Estimado</t>
@@ -418,6 +409,83 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -574,83 +642,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -691,16 +682,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -712,24 +703,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1048,7 +1039,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
@@ -1087,14 +1078,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D2" s="2">
         <f>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E2" s="2">
         <f>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1118,14 +1109,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="D3" s="2">
         <f>IF(B3 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="E3" s="2">
         <f>IF(B3 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1136,25 +1127,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>8</v>
@@ -1165,14 +1156,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D4" s="2">
         <f>IF(B4 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="E4" s="2">
         <f>IF(B4 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1183,14 +1174,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="14">
         <v>0.83333333333333337</v>
       </c>
       <c r="J4" s="14">
         <f>D244</f>
-        <v>0</v>
+        <v>0.8354166666666667</v>
       </c>
       <c r="K4" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1210,7 +1201,7 @@
       </c>
       <c r="O4" s="14">
         <f>I4 - J4</f>
-        <v>0.83333333333333337</v>
+        <v>-2.0833333333333259E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1218,14 +1209,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="D5" s="2">
         <f>IF(B5 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E5" s="2">
         <f>IF(B5 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1236,34 +1227,34 @@
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="14">
         <v>0.83333333333333337</v>
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="L5" s="14">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Cesar")</f>
-        <v>0</v>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="N5" s="14">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 2",$A$2:$A$200,"Leonardo")</f>
-        <v>0</v>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1271,14 +1262,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D6" s="2">
         <f>IF(B6 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E6" s="2">
         <f>IF(B6 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1289,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="14">
         <v>0.83333333333333337</v>
@@ -1303,7 +1294,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L6" s="16">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Cesar")</f>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Cesar")</f>
         <v>0</v>
       </c>
       <c r="M6" s="17">
@@ -1311,7 +1302,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N6" s="17">
-        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 3",$A$2:$A$200,"Leonardo")</f>
+        <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Leonardo")</f>
         <v>0</v>
       </c>
       <c r="O6" s="14">
@@ -1324,14 +1315,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D7" s="2">
         <f>IF(B7 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E7" s="2">
         <f>IF(B7 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1352,14 +1343,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D8" s="2">
         <f>IF(B8 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="2">
         <f>IF(B8 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1375,14 +1366,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D9" s="2">
         <f>IF(B9 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E9" s="2">
         <f>IF(B9 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1398,14 +1389,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="D10" s="2">
         <f>IF(B10 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E10" s="2">
         <f>IF(B10 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1421,14 +1412,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>0.20833333333333334</v>
       </c>
       <c r="D11" s="2">
         <f>IF(B11 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E11" s="2">
         <f>IF(B11 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1444,14 +1435,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="2">
         <f>IF(B12 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E12" s="2">
         <f>IF(B12 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1463,15 +1454,22 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D13" s="2">
         <f>IF(B13 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="2">
         <f>IF(B13 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F13" s="7">
         <f>IF(B13 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1479,15 +1477,22 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D14" s="2">
         <f>IF(B14 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <f>IF(B14 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F14" s="7">
         <f>IF(B14 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4941,11 +4946,11 @@
       <c r="C244" s="11"/>
       <c r="D244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado Semana 1])</f>
-        <v>0</v>
+        <v>0.8354166666666667</v>
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -4994,7 +4999,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5012,7 +5017,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5020,7 +5025,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -5028,7 +5033,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{7E0CCA20-FC82-3041-95E6-3A2DA04C491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BCC9C3-F8C5-4A62-9217-F23AC5754FDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1DFD-E393-924F-AB41-2E87CC4908E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -409,83 +407,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -642,6 +563,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -682,16 +680,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -703,24 +701,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1038,11 +1036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1053,7 +1051,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1102,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1232,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1250,14 +1248,14 @@
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1336,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1499,23 +1497,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D15" s="2">
         <f>IF(B15 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
         <f>IF(B15 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F15" s="7">
         <f>IF(B15 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2">
@@ -1531,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2">
@@ -1547,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1563,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1579,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1595,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1610,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1625,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1640,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1655,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1670,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1685,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1700,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1715,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1730,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1745,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1760,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1775,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1790,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1805,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1820,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1835,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1850,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1865,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1880,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1895,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1910,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1925,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1940,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1955,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1970,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1985,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2000,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2015,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2030,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2045,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2060,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2075,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2090,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2105,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2120,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2135,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2150,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2165,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2180,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2195,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2210,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2225,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2240,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2255,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2270,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2285,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2300,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2315,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2330,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2345,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2360,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2375,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2390,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2405,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2420,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2435,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2450,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2465,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2480,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2495,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2510,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2525,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2540,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2555,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2585,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2600,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2615,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2630,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2645,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2675,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2690,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2705,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2720,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2735,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2750,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2765,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2780,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2795,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2810,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2825,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2840,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2855,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2870,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2885,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2900,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2915,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2930,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2945,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2960,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2975,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2990,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3005,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3020,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3035,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3050,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3080,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3095,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3110,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3125,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3140,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3155,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3170,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3185,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3200,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3215,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3230,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3245,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3260,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3275,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3290,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3320,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3335,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3350,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3365,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3380,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3395,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3410,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3425,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3440,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3455,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3470,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3485,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3500,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3515,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3530,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3545,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3560,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3575,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3590,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3605,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3620,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3635,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3650,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3665,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3680,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3695,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3710,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3725,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3740,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3755,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3770,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3785,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3800,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3815,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3830,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3845,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3860,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3875,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3890,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3905,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3920,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3935,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3950,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3965,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3980,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3995,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4010,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4025,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4040,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4055,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4070,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4085,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4100,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4115,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4130,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4145,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4160,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4175,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4190,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4205,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4220,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4235,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4250,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4265,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4280,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4295,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4310,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4325,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4340,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4355,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4370,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4385,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4400,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4415,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4430,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4445,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4460,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4475,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4490,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4505,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4520,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4535,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4550,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4565,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4580,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4595,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4610,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4625,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4640,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4655,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4670,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4685,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4700,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4715,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4730,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4745,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4760,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4775,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4790,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4805,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4820,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4835,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4850,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4865,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4880,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4895,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4910,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4925,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4940,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4950,7 +4955,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5002,12 +5007,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1DFD-E393-924F-AB41-2E87CC4908E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9D7F1DFD-E393-924F-AB41-2E87CC4908E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B56F395-8828-425B-9EC6-BFF9AC97EF90}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10420" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="28680" yWindow="2445" windowWidth="21840" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1036,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1051,7 +1054,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1240,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1252,10 +1255,10 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1520,23 +1523,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D16" s="2">
         <f>IF(B16 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <f>IF(B16 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F16" s="7">
         <f>IF(B16 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2">
@@ -1552,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1568,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1584,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1600,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1615,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1630,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1645,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1660,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1675,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1690,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1705,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1720,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1735,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1750,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1765,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1780,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1795,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1810,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1825,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1840,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1855,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1870,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1885,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1900,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1915,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1930,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1945,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1960,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1975,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1990,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2005,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2020,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2035,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2050,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2065,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2080,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2095,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2110,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2125,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2140,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2155,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2170,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2185,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2200,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2215,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2230,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2245,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2260,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2275,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2290,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2305,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2320,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2335,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2350,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2365,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2380,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2395,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2410,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2425,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2440,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2455,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2470,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2485,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2500,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2515,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2530,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2545,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2560,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2575,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2590,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2605,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2620,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2635,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2650,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2665,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2680,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2695,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2710,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2725,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2740,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2755,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2770,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2785,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2800,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2815,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2830,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2845,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2860,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2875,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2890,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2905,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2920,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2935,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2950,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2965,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2980,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2995,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3010,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3025,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3040,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3055,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3070,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3085,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3100,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3115,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3130,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3145,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3160,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3175,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3190,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3205,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3220,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3235,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3250,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3265,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3280,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3295,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3310,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3325,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3340,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3355,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3370,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3385,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3400,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3415,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3430,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3445,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3460,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3475,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3490,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3505,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3520,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3535,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3550,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3565,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3580,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3595,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3610,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3625,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3640,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3655,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3670,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3685,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3700,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3715,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3730,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3745,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3760,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3775,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3790,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3805,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3820,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3835,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3850,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3865,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3880,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3895,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3910,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3925,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3940,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3955,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3970,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3985,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4000,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4015,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4030,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4045,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4060,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4075,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4090,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4105,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4120,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4135,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4150,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4165,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4180,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4195,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4210,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4225,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4240,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4255,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4270,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4285,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4300,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4315,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4330,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4345,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4360,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4375,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4390,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4405,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4420,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4435,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4450,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4465,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4480,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4495,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4510,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4525,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4540,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4555,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4570,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4585,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4600,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4615,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4630,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4645,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4660,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4675,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4690,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4705,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4720,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4735,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4750,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4765,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4780,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4795,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4810,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4825,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4840,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4855,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4870,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4885,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4900,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4915,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4930,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4945,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4955,7 +4965,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5007,12 +5017,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9D7F1DFD-E393-924F-AB41-2E87CC4908E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B56F395-8828-425B-9EC6-BFF9AC97EF90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2445" windowWidth="21840" windowHeight="13140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="28800" yWindow="-11180" windowWidth="60160" windowHeight="33840" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1040,10 +1038,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1054,7 +1052,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1103,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.27083333333333331</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1251,14 +1249,14 @@
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
-        <v>0.16666666666666666</v>
+        <v>0.24583333333333332</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.48333333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1337,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1546,23 +1544,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7.9166666666666663E-2</v>
+      </c>
       <c r="D17" s="2">
         <f>IF(B17 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="2">
         <f>IF(B17 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>7.9166666666666663E-2</v>
       </c>
       <c r="F17" s="7">
         <f>IF(B17 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2">
@@ -1578,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1594,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1610,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1625,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1640,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1655,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1670,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1685,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1700,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1715,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1730,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1745,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1760,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1775,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1790,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1805,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1820,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1835,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1850,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1865,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1880,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1895,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1910,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1925,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1940,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1955,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1970,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1985,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2000,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2015,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2030,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2045,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2060,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2075,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2090,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2105,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2120,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2135,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2150,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2165,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2180,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2195,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2210,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2225,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2240,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2255,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2270,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2285,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2300,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2315,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2330,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2345,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2360,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2375,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2390,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2405,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2420,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2435,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2450,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2465,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2480,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2495,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2510,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2525,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2540,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2555,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2585,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2600,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2615,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2630,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2645,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2675,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2690,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2705,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2720,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2735,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2750,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2765,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2780,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2795,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2810,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2825,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2840,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2855,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2870,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2885,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2900,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2915,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2930,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2945,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2960,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2975,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2990,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3005,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3020,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3035,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3050,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3080,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3095,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3110,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3125,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3140,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3155,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3170,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3185,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3200,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3215,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3230,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3245,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3260,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3275,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3290,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3320,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3335,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3350,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3365,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3380,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3395,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3410,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3425,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3440,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3455,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3470,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3485,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3500,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3515,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3530,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3545,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3560,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3575,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3590,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3605,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3620,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3635,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3650,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3665,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3680,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3695,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3710,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3725,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3740,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3755,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3770,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3785,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3800,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3815,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3830,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3845,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3860,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3875,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3890,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3905,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3920,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3935,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3950,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3965,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3980,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3995,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4010,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4025,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4040,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4055,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4070,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4085,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4100,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4115,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4130,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4145,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4160,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4175,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4190,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4205,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4220,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4235,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4250,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4265,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4280,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4295,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4310,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4325,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4340,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4355,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4370,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4385,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4400,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4415,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4430,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4445,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4460,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4475,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4490,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4505,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4520,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4535,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4550,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4565,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4580,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4595,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4610,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4625,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4640,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4655,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4670,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4685,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4700,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4715,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4730,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4745,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4760,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4775,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4790,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4805,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4820,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4835,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4850,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4865,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4880,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4895,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4910,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4925,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4940,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4955,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4965,7 +4970,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.27083333333333331</v>
+        <v>0.35</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5017,12 +5022,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BCFD88C-C264-444B-9C5A-98EB1A116161}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-11180" windowWidth="60160" windowHeight="33840" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1037,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1052,7 +1054,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1105,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.35</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1241,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>0.10416666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1253,10 +1255,10 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.48333333333333339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.42083333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1339,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1567,23 +1569,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="D18" s="2">
         <f>IF(B18 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="2">
         <f>IF(B18 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F18" s="7">
         <f>IF(B18 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2">
@@ -1599,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2">
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1630,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1645,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1660,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1675,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1690,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1705,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1720,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1735,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1750,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1765,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1780,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1795,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1825,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1840,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1855,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1870,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1885,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1900,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1930,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1945,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1960,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1975,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1990,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2005,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2020,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2035,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2050,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2065,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2080,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2095,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2110,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2125,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2170,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2185,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2200,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2215,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2230,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2245,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2275,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2290,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2305,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2320,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2335,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2350,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2365,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2380,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2395,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2410,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2425,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2440,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2455,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2470,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2485,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2500,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2515,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2530,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2545,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2560,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2575,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2590,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2605,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2620,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2650,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2665,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2680,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2695,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2710,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2725,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2740,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2755,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2770,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2785,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2800,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2815,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2830,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2845,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2860,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2875,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2890,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2905,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2920,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2935,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2950,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2965,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2980,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2995,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3010,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3025,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3040,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3055,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3070,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3085,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3100,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3115,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3130,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3145,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3160,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3175,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3190,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3205,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3235,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3250,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3265,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3295,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3310,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3325,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3340,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3355,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3370,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3385,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3400,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3415,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3430,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3445,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3460,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3475,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3490,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3505,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3520,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3535,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3550,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3565,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3580,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3610,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3625,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3640,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3655,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3670,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3685,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3700,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3730,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3745,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3760,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3775,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3790,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3805,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3820,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3835,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3850,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3865,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3880,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3895,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3910,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3925,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3940,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3955,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3970,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3985,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4000,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4015,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4030,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4045,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4060,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4075,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4090,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4105,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4120,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4135,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4150,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4165,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4180,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4195,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4210,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4225,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4240,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4255,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4270,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4285,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4300,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4315,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4330,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4345,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4360,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4375,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4390,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4405,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4420,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4435,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4450,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4465,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4480,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4495,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4510,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4540,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4555,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4570,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4585,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4600,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4615,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4630,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4645,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4660,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4675,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4690,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4705,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4720,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4735,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4750,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4765,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4780,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4795,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4810,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4825,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4840,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4855,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4870,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4885,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4900,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4930,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4945,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4960,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4970,7 +4979,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.35</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5022,12 +5031,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5043,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5051,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BCFD88C-C264-444B-9C5A-98EB1A116161}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC55FF0A-974F-44D7-8D64-8BC92E7EB776}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.41249999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.42083333333333339</v>
+        <v>0.35833333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1593,15 +1593,22 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="D19" s="2">
         <f>IF(B19 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="2">
         <f>IF(B19 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F19" s="7">
         <f>IF(B19 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4979,7 +4986,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.41249999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4E50F906-144F-594E-B99D-9BAD18E2584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC55FF0A-974F-44D7-8D64-8BC92E7EB776}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -410,6 +408,83 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -566,83 +641,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -683,16 +681,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -704,24 +702,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1040,10 +1038,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1054,7 +1052,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1103,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.47499999999999998</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1251,14 +1249,14 @@
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
-        <v>0.24583333333333332</v>
+        <v>0.31180555555555556</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.35833333333333339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.29236111111111118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1337,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,23 +1613,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.5972222222222224E-2</v>
+      </c>
       <c r="D20" s="2">
         <f>IF(B20 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="2">
         <f>IF(B20 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>6.5972222222222224E-2</v>
       </c>
       <c r="F20" s="7">
         <f>IF(B20 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1646,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1661,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1676,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1691,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1706,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1721,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1736,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1751,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1766,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1781,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1796,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1811,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1826,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1841,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1856,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1871,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1886,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1901,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1916,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1931,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1946,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1961,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1976,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1991,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2006,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2021,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2036,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2051,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2066,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2081,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2096,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2111,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2126,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2141,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2156,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2171,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2186,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2201,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2216,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2231,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2246,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2261,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2276,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2291,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2306,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2321,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2336,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2351,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2366,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2381,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2396,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2411,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2426,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2441,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2456,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2471,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2486,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2516,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2531,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2546,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2561,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2576,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2591,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2606,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2621,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2636,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2651,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2681,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2696,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2711,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2726,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2741,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2756,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2771,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2786,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2801,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2816,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2831,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2846,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2861,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2876,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2891,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2906,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2921,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2936,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2951,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2966,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2981,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2996,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3011,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3026,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3041,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3056,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3071,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3086,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3101,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3116,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3131,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3146,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3161,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3176,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3191,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3206,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3221,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3236,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3251,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3266,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3281,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3296,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3311,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3326,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3341,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3356,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3371,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3386,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3401,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3416,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3431,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3446,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3461,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3476,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3491,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3506,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3521,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3536,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3551,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3566,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3581,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3596,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3611,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3626,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3641,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3656,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3671,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3686,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3701,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3716,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3731,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3746,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3761,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3776,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3791,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3806,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3821,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3836,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3851,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3866,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3881,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3896,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3911,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3926,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3941,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3956,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3971,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3986,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4001,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4016,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4031,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4046,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4061,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4076,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4091,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4106,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4121,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4136,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4151,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4166,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4181,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4196,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4211,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4226,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4241,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4256,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4271,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4286,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4301,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4316,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4331,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4346,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4361,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4376,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4391,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4406,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4421,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4436,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4451,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4466,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4481,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4496,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4511,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4526,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4541,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4556,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4571,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4586,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4601,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4616,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4631,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4646,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4661,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4676,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4691,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4706,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4721,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4736,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4751,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4766,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4781,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4796,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4811,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4826,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4841,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4856,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4871,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4886,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4901,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4916,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4931,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4946,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4961,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4976,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4986,7 +4991,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.47499999999999998</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5038,12 +5043,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6F6351-7888-458C-BA41-60893C2B54A9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -408,83 +410,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -641,6 +566,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -681,16 +683,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -702,24 +704,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1037,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1052,7 +1054,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1105,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.54097222222222219</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1241,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>0.22916666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1253,10 +1255,10 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.29236111111111118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.20902777777777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1339,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1636,22 +1638,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D21" s="2">
         <f>IF(B21 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <f>IF(B21 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F21" s="7">
         <f>IF(B21 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1666,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1681,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1696,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1711,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1726,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1741,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1756,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1771,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1786,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1801,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1816,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1831,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1846,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1861,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1876,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1891,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1906,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1921,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1936,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1951,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1966,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1981,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1996,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2011,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2026,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2041,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2056,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2071,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2086,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2101,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2116,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2131,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2146,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2161,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2176,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2191,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2206,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2221,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2236,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2251,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2266,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2281,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2296,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2311,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2326,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2341,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2356,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2371,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2386,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2401,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2416,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2431,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2446,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2461,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2476,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2491,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2506,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2521,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2536,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2551,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2566,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2581,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2596,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2611,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2626,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2641,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2656,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2671,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2686,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2701,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2716,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2731,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2746,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2761,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2776,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2791,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2806,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2821,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2836,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2851,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2866,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2881,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2896,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2911,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2926,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2941,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2956,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2971,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2986,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3001,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3016,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3031,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3046,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3061,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3076,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3091,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3106,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3121,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3136,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3151,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3166,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3181,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3196,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3211,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3226,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3241,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3256,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3271,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3286,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3301,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3316,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3331,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3346,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3361,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3376,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3391,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3406,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3421,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3436,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3451,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3466,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3481,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3496,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3511,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3526,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3541,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3556,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3571,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3586,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3601,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3616,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3631,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3646,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3661,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3676,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3691,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3706,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3721,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3736,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3751,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3766,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3781,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3796,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3811,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3826,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3841,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3856,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3871,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3886,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3901,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3916,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3931,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3946,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3961,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3976,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3991,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4006,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4021,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4036,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4051,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4066,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4081,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4096,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4111,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4126,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4141,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4156,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4171,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4186,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4201,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4216,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4231,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4246,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4261,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4276,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4291,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4306,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4321,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4336,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4351,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4366,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4381,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4396,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4411,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4426,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4441,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4456,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4471,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4486,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4501,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4516,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4531,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4546,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4561,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4576,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4591,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4606,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4621,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4636,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4651,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4666,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4681,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4696,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4711,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4726,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4741,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4756,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4771,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4786,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4801,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4816,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4831,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4846,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4861,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4876,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4891,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4906,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4921,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4936,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4951,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4966,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4981,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -4991,7 +5001,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.54097222222222219</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5043,12 +5053,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5072,7 +5082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6F6351-7888-458C-BA41-60893C2B54A9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2312987D-868E-4F0D-B8F0-40485C41028B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -410,6 +410,83 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -566,83 +643,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -683,16 +683,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -704,24 +704,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.62430555555555556</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>0.3125</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.20902777777777781</v>
+        <v>0.12569444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1662,14 +1662,22 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="5"/>
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D22" s="2">
         <f>IF(B22 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="2">
         <f>IF(B22 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F22" s="7">
         <f>IF(B22 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5001,7 +5009,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.62430555555555556</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16d1df2b2646901a/Documentos/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{625BEB36-B59A-F54C-BD57-52F1E633C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2312987D-868E-4F0D-B8F0-40485C41028B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6823134-D5EF-2B4A-AE55-A1E4FBA46A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="28800" yWindow="-11180" windowWidth="60160" windowHeight="33840" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -410,83 +408,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -643,6 +564,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -683,16 +681,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -704,24 +702,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -741,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1039,11 +1037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA28EEB-0D8A-B34C-A5FE-30F0F9165161}">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1054,7 +1052,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1103,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.70763888888888893</v>
+        <v>0.86736111111111125</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1251,14 +1249,14 @@
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
-        <v>0.31180555555555556</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>0.12569444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-3.4027777777777879E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1337,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1684,52 +1682,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="5"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="D23" s="2">
         <f>IF(B23 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="2">
         <f>IF(B23 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="F23" s="7">
         <f>IF(B23 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="5"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D24" s="2">
         <f>IF(B24 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="2">
         <f>IF(B24 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F24" s="7">
         <f>IF(B24 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="5"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="D25" s="2">
         <f>IF(B25 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E25" s="2">
         <f>IF(B25 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="F25" s="7">
         <f>IF(B25 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1744,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1759,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1774,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1789,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1804,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1819,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1834,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1849,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1864,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1879,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1894,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1909,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1924,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1939,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1954,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1969,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1984,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1999,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2014,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2029,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2044,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2059,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2074,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2089,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2104,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2119,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2134,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2149,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2164,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2179,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2194,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2209,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2224,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2239,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2254,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2269,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2284,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2299,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2314,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2329,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2344,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2359,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2374,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2389,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2404,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2419,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2434,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2449,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2464,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2479,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2494,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2509,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2524,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2539,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2554,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2569,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2584,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2599,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2614,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2629,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2644,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2659,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2674,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2689,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2704,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2719,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2734,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2749,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2764,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2779,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2794,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2809,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2824,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2839,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2854,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2869,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2884,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2899,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2914,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2929,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2944,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2959,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2974,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2989,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3004,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3019,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3034,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3049,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3064,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3079,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3094,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3109,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3124,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3139,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3154,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3169,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3184,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3199,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3214,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3229,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3244,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3259,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3274,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3289,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3304,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3319,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3334,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3349,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3364,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3379,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3394,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3409,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3424,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3439,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3454,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3469,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3484,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3499,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3514,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3529,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3544,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3559,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3574,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3589,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3604,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3619,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3634,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3649,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3664,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3679,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3694,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3709,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3724,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3739,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3754,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3769,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3784,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3799,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3814,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3829,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3844,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3859,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3874,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3889,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3904,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3919,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3934,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3949,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3964,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3979,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3994,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4009,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4024,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4039,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4054,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4069,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4084,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4099,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4114,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4129,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4144,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4159,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4174,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4189,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4204,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4219,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4234,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4249,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4264,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4279,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4294,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4309,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4324,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4339,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4354,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4369,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4384,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4399,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4414,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4429,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4444,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4459,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4474,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4489,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4504,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4519,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4534,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4549,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4564,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4579,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4594,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4609,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4624,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4639,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4654,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4669,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4684,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4699,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4714,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4729,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4744,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4759,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4774,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4789,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4804,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4819,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4834,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4849,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4864,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4879,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4894,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4909,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4924,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4939,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4954,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4969,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4984,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4999,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -5009,7 +5031,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.70763888888888893</v>
+        <v>0.86736111111111125</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5061,12 +5083,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5074,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5082,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5090,7 +5112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6823134-D5EF-2B4A-AE55-A1E4FBA46A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F6823134-D5EF-2B4A-AE55-A1E4FBA46A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD6D9A1E-45D0-4471-B0EC-F2BE5E78E5BF}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-11180" windowWidth="60160" windowHeight="33840" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="-24110" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -739,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1038,10 +1040,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1052,7 +1054,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1105,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="J5" s="14">
         <f>E244</f>
-        <v>0.86736111111111125</v>
+        <v>0.95069444444444451</v>
       </c>
       <c r="K5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1241,7 +1243,7 @@
       </c>
       <c r="L5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Cesar")</f>
-        <v>0.39583333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="M5" s="14">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1249,14 +1251,14 @@
       </c>
       <c r="N5" s="14">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 2",$A$2:$A$200,"Leonardo")</f>
-        <v>0.47152777777777777</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" ref="O5:O6" si="0">I5 - J5</f>
-        <v>-3.4027777777777879E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.11736111111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1339,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1751,37 +1753,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D26" s="2">
         <f>IF(B26 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="2">
         <f>IF(B26 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="7">
         <f>IF(B26 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D27" s="2">
         <f>IF(B27 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="2">
         <f>IF(B27 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="7">
         <f>IF(B27 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" s="5"/>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1796,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="5"/>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1811,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1826,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1841,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1856,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1871,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1886,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1901,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1916,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1931,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1946,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1961,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1991,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2021,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2036,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2051,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2066,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2081,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2096,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2111,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2126,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2141,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2156,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2171,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2186,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2201,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2216,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2231,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2246,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2261,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2276,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2291,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2306,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2321,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2336,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2351,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2366,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2381,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2396,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2411,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2426,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2441,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2456,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2471,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2486,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2501,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2516,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2531,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2546,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2561,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2576,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2591,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2606,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2621,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2636,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2651,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2666,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2681,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2696,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2711,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2726,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2741,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2756,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2771,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2786,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2801,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2816,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2831,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2846,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2861,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2876,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2891,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2906,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2921,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2936,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2951,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2966,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2981,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2996,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3011,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3026,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3056,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3071,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3086,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3101,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3116,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3131,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3146,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3161,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3176,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3191,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3206,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3221,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3236,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3251,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3266,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3281,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3296,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3311,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3326,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3341,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3356,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3371,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3386,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3401,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3416,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3431,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3446,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3461,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3476,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3491,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3506,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3521,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3536,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3551,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3566,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3581,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3596,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3611,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3626,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3656,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3671,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3686,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3701,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3716,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3731,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3746,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3761,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3776,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3791,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3806,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3821,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3836,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3851,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3866,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3881,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3896,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3911,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3926,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3941,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3956,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3971,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3986,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4001,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4016,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4031,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4046,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4061,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4076,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4091,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4106,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4121,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4136,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4151,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4166,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4181,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4196,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4211,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4226,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4241,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4256,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4271,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4286,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4301,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4316,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4331,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4346,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4361,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4376,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4391,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4406,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4421,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4436,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4451,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4466,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4481,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4496,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4511,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4526,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4541,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4556,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4571,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4586,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4601,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4616,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4631,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4646,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4661,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4676,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4691,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4706,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4721,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4736,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4751,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4766,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4781,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4796,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4811,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4826,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4841,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4856,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4871,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4886,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4901,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4916,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4931,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4946,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4961,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4976,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4991,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5006,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5021,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -5031,7 +5049,7 @@
       </c>
       <c r="E244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 2])</f>
-        <v>0.86736111111111125</v>
+        <v>0.95069444444444451</v>
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
@@ -5083,12 +5101,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5096,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5104,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5112,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajinomotodobrasil-my.sharepoint.com/personal/cesar_valerio_br_ajinomoto_com/Documents/Área de Trabalho/Programação/Projetos com Leo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F6823134-D5EF-2B4A-AE55-A1E4FBA46A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD6D9A1E-45D0-4471-B0EC-F2BE5E78E5BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228CD4D-CEC0-B841-8C6C-D5F47E2902AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24110" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de horas" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -741,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1040,10 +1038,10 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1054,7 +1052,7 @@
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1103,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>-2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>-0.11736111111111114</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1286,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" si="1">F244</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1296,7 +1294,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Cesar")</f>
-        <v>0</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="M6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1304,14 +1302,14 @@
       </c>
       <c r="N6" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Leonardo")</f>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1337,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -1799,8 +1797,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9.0277777777777776E-2</v>
+      </c>
       <c r="D28" s="2">
         <f>IF(B28 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1811,11 +1817,19 @@
       </c>
       <c r="F28" s="7">
         <f>IF(B28 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="5"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="D29" s="2">
         <f>IF(B29 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1826,11 +1840,19 @@
       </c>
       <c r="F29" s="7">
         <f>IF(B29 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="5"/>
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="D30" s="2">
         <f>IF(B30 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1841,10 +1863,10 @@
       </c>
       <c r="F30" s="7">
         <f>IF(B30 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="5"/>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1859,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1874,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="5"/>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1889,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1904,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1919,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1934,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1949,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1964,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1979,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1994,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2009,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2024,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2039,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2054,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2069,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2084,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2099,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2114,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="2">
         <f>IF(B49 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2129,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="2">
         <f>IF(B50 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2144,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="2">
         <f>IF(B51 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2159,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="2">
         <f>IF(B52 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2174,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="2">
         <f>IF(B53 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2189,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="2">
         <f>IF(B54 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2204,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="2">
         <f>IF(B55 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2219,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="2">
         <f>IF(B56 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2234,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="2">
         <f>IF(B57 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2249,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="2">
         <f>IF(B58 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2264,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="2">
         <f>IF(B59 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2279,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="2">
         <f>IF(B60 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2294,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="2">
         <f>IF(B61 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2309,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="2">
         <f>IF(B62 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2324,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="2">
         <f>IF(B63 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2339,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="2">
         <f>IF(B64 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2354,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="2">
         <f>IF(B65 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2369,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="2">
         <f>IF(B66 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2384,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="2">
         <f>IF(B67 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2399,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="2">
         <f>IF(B68 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2414,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="2">
         <f>IF(B69 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2429,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="2">
         <f>IF(B70 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2444,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="2">
         <f>IF(B71 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2459,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="2">
         <f>IF(B72 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2474,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="2">
         <f>IF(B73 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2489,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="2">
         <f>IF(B74 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2504,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="2">
         <f>IF(B75 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2519,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="2">
         <f>IF(B76 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2534,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="2">
         <f>IF(B77 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2549,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="2">
         <f>IF(B78 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2564,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="2">
         <f>IF(B79 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2579,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="2">
         <f>IF(B80 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2594,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="2">
         <f>IF(B81 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2609,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="2">
         <f>IF(B82 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2624,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="2">
         <f>IF(B83 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2639,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="2">
         <f>IF(B84 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2654,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="2">
         <f>IF(B85 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2669,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="2">
         <f>IF(B86 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2684,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="2">
         <f>IF(B87 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2699,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="2">
         <f>IF(B88 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2714,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="2">
         <f>IF(B89 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2729,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="2">
         <f>IF(B90 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2744,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="2">
         <f>IF(B91 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2759,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="2">
         <f>IF(B92 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2774,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="2">
         <f>IF(B93 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2789,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="2">
         <f>IF(B94 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2804,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="2">
         <f>IF(B95 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2819,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="2">
         <f>IF(B96 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2834,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="2">
         <f>IF(B97 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2849,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="2">
         <f>IF(B98 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2864,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="2">
         <f>IF(B99 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2879,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="2">
         <f>IF(B100 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2894,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="2">
         <f>IF(B101 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2909,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="2">
         <f>IF(B102 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2924,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="2">
         <f>IF(B103 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2939,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="2">
         <f>IF(B104 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2954,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="2">
         <f>IF(B105 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2969,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="2">
         <f>IF(B106 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2984,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="2">
         <f>IF(B107 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2999,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="2">
         <f>IF(B108 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3014,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="2">
         <f>IF(B109 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3029,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="2">
         <f>IF(B110 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3044,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="2">
         <f>IF(B111 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3059,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="2">
         <f>IF(B112 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3074,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="2">
         <f>IF(B113 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3089,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="2">
         <f>IF(B114 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3104,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="2">
         <f>IF(B115 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3119,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="2">
         <f>IF(B116 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3134,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="2">
         <f>IF(B117 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3149,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="2">
         <f>IF(B118 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3164,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="2">
         <f>IF(B119 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3179,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="2">
         <f>IF(B120 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3194,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="2">
         <f>IF(B121 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3209,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="2">
         <f>IF(B122 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3224,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="2">
         <f>IF(B123 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3239,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="2">
         <f>IF(B124 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3254,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="2">
         <f>IF(B125 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3269,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="2">
         <f>IF(B126 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3284,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="2">
         <f>IF(B127 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3299,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="2">
         <f>IF(B128 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3314,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="2">
         <f>IF(B129 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3329,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="2">
         <f>IF(B130 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3344,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="2">
         <f>IF(B131 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3359,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="2">
         <f>IF(B132 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3374,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="2">
         <f>IF(B133 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3389,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="2">
         <f>IF(B134 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3404,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="2">
         <f>IF(B135 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3419,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="2">
         <f>IF(B136 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3434,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="2">
         <f>IF(B137 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3449,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="2">
         <f>IF(B138 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3464,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="2">
         <f>IF(B139 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3479,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="2">
         <f>IF(B140 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3494,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="2">
         <f>IF(B141 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3509,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="2">
         <f>IF(B142 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3524,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="2">
         <f>IF(B143 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3539,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="2">
         <f>IF(B144 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3554,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="2">
         <f>IF(B145 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3569,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="2">
         <f>IF(B146 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3584,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="2">
         <f>IF(B147 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3599,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="2">
         <f>IF(B148 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3614,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="2">
         <f>IF(B149 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3629,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="2">
         <f>IF(B150 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3644,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="2">
         <f>IF(B151 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3659,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="2">
         <f>IF(B152 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3674,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="2">
         <f>IF(B153 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3689,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="2">
         <f>IF(B154 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3704,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="2">
         <f>IF(B155 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3719,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="2">
         <f>IF(B156 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3734,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="2">
         <f>IF(B157 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3749,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="2">
         <f>IF(B158 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3764,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="2">
         <f>IF(B159 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3779,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="2">
         <f>IF(B160 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3794,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="2">
         <f>IF(B161 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3809,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="2">
         <f>IF(B162 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3824,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="2">
         <f>IF(B163 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3839,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="2">
         <f>IF(B164 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3854,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="2">
         <f>IF(B165 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3869,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="2">
         <f>IF(B166 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3884,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="2">
         <f>IF(B167 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3899,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="2">
         <f>IF(B168 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3914,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="2">
         <f>IF(B169 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3929,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="2">
         <f>IF(B170 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3944,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="2">
         <f>IF(B171 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3959,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="2">
         <f>IF(B172 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3974,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="2">
         <f>IF(B173 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -3989,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="2">
         <f>IF(B174 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4004,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="2">
         <f>IF(B175 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4019,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="2">
         <f>IF(B176 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4034,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="2">
         <f>IF(B177 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4049,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="2">
         <f>IF(B178 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4064,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="2">
         <f>IF(B179 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4079,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="2">
         <f>IF(B180 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4094,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="2">
         <f>IF(B181 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4109,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="2">
         <f>IF(B182 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4124,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="2">
         <f>IF(B183 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4139,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="2">
         <f>IF(B184 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4154,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="2">
         <f>IF(B185 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4169,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="2">
         <f>IF(B186 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4184,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="2">
         <f>IF(B187 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4199,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="2">
         <f>IF(B188 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4214,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="2">
         <f>IF(B189 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4229,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="2">
         <f>IF(B190 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4244,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="2">
         <f>IF(B191 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4259,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="2">
         <f>IF(B192 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4274,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="2">
         <f>IF(B193 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4289,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="2">
         <f>IF(B194 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4304,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="2">
         <f>IF(B195 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4319,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="2">
         <f>IF(B196 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4334,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="2">
         <f>IF(B197 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4349,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="2">
         <f>IF(B198 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4364,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="2">
         <f>IF(B199 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4379,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="2">
         <f>IF(B200 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4394,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="2">
         <f>IF(B201 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4409,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="2">
         <f>IF(B202 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4424,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="2">
         <f>IF(B203 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4439,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="2">
         <f>IF(B204 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4454,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="2">
         <f>IF(B205 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4469,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="2">
         <f>IF(B206 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4484,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="2">
         <f>IF(B207 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4499,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="2">
         <f>IF(B208 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4514,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="2">
         <f>IF(B209 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4529,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="2">
         <f>IF(B210 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4544,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="2">
         <f>IF(B211 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4559,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="2">
         <f>IF(B212 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4574,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="2">
         <f>IF(B213 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4589,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="2">
         <f>IF(B214 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4604,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="2">
         <f>IF(B215 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4619,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="2">
         <f>IF(B216 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4634,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="2">
         <f>IF(B217 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4649,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="2">
         <f>IF(B218 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4664,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="2">
         <f>IF(B219 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4679,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="2">
         <f>IF(B220 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4694,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="2">
         <f>IF(B221 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4709,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="2">
         <f>IF(B222 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4724,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="2">
         <f>IF(B223 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4739,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="2">
         <f>IF(B224 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4754,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="2">
         <f>IF(B225 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4769,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="2">
         <f>IF(B226 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4784,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="2">
         <f>IF(B227 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4799,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="2">
         <f>IF(B228 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4814,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="2">
         <f>IF(B229 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4829,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="2">
         <f>IF(B230 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4844,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="2">
         <f>IF(B231 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4859,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="2">
         <f>IF(B232 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4874,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="2">
         <f>IF(B233 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4889,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="2">
         <f>IF(B234 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4904,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="2">
         <f>IF(B235 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4919,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="2">
         <f>IF(B236 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4934,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="2">
         <f>IF(B237 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4949,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="2">
         <f>IF(B238 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4964,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="2">
         <f>IF(B239 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4979,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="2">
         <f>IF(B240 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -4994,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="2">
         <f>IF(B241 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5009,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="2">
         <f>IF(B242 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5024,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="2">
         <f>IF(B243 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5039,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -5053,7 +5075,7 @@
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
@@ -5101,12 +5123,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5114,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5122,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5130,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228CD4D-CEC0-B841-8C6C-D5F47E2902AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D3780-E8E3-6B4D-BC72-93EE95111D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" si="1">F244</f>
-        <v>0.1875</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="N6" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Leonardo")</f>
-        <v>0.1388888888888889</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
+        <v>0.57013888888888897</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,15 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7.5694444444444439E-2</v>
+      </c>
       <c r="D31" s="2">
         <f>IF(B31 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1878,7 +1886,7 @@
       </c>
       <c r="F31" s="7">
         <f>IF(B31 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>7.5694444444444439E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5083,7 @@
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
-        <v>0.1875</v>
+        <v>0.26319444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D3780-E8E3-6B4D-BC72-93EE95111D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06629579-C390-E24A-B435-2F6FD4E1374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" si="1">F244</f>
-        <v>0.26319444444444445</v>
+        <v>0.40902777777777777</v>
       </c>
       <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Cesar")</f>
-        <v>4.8611111111111112E-2</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0.57013888888888897</v>
+        <v>0.4243055555555556</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,15 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D32" s="2">
         <f>IF(B32 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1901,11 +1909,19 @@
       </c>
       <c r="F32" s="7">
         <f>IF(B32 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="D33" s="2">
         <f>IF(B33 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1916,10 +1932,10 @@
       </c>
       <c r="F33" s="7">
         <f>IF(B33 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1934,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1949,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1964,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="2">
         <f>IF(B37 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1979,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="2">
         <f>IF(B38 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -1994,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="2">
         <f>IF(B39 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2009,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="2">
         <f>IF(B40 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2024,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="2">
         <f>IF(B41 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2039,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="2">
         <f>IF(B42 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2054,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="2">
         <f>IF(B43 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2069,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="2">
         <f>IF(B44 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2084,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="2">
         <f>IF(B45 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2099,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="2">
         <f>IF(B46 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2114,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="2">
         <f>IF(B47 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -2129,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="2">
         <f>IF(B48 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
@@ -5083,7 +5099,7 @@
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
-        <v>0.26319444444444445</v>
+        <v>0.40902777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06629579-C390-E24A-B435-2F6FD4E1374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AC641-7432-ED45-9E84-062AB6130876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" si="1">F244</f>
-        <v>0.40902777777777777</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Cesar")</f>
-        <v>0.19444444444444445</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="M6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0.4243055555555556</v>
+        <v>0.25763888888888897</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,15 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D34" s="2">
         <f>IF(B34 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1947,7 +1955,7 @@
       </c>
       <c r="F34" s="7">
         <f>IF(B34 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5099,7 +5107,7 @@
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
-        <v>0.40902777777777777</v>
+        <v>0.5756944444444444</v>
       </c>
     </row>
   </sheetData>

--- a/Controle-de-tempo.xlsx
+++ b/Controle-de-tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardoamaral/Documents/GitHub/Automatizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AC641-7432-ED45-9E84-062AB6130876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1A45AC-C43B-944F-84B2-C7B46900F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" xr2:uid="{3FD58BC0-7166-A544-9D3F-4C0C6ADD0B8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>Programador</t>
   </si>
@@ -408,6 +408,83 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[h]:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -564,83 +641,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[h]:mm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -681,16 +681,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}" name="Tabela2" displayName="Tabela2" ref="A1:F244" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:F243" xr:uid="{5C62BFB8-9C3B-4B43-8CE0-D9EC807A65F0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F9D04D5C-1B13-1146-85F5-C02A493CA05D}" name="Programador" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{140503C1-53D7-754C-910B-051B5F7728CE}" name="Fase" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12237082-083D-2D40-845A-FD498B357711}" name="Tempo gasto" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4D300DB9-09E4-314B-8B74-CF1F01E29B63}" name="Consolidado Semana 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(B2 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{C9F05270-93BA-7848-9953-7C856BC88079}" name="Consolidado fase 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(B2 = Fases!$A$3,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{2A8EA229-EA85-434C-B206-5EEF9D84A108}" name="Consolidado fase 3" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(B2 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -702,24 +702,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}" name="Tabela3" displayName="Tabela3" ref="H3:O7" totalsRowShown="0">
   <autoFilter ref="H3:O7" xr:uid="{72BEE90A-B29B-CB45-B75C-BDE2DE18D64C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A33A952A-A8B2-7346-9422-3509A12946D6}" name="Semana" dataDxfId="18">
       <calculatedColumnFormula>Fases!A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ECB71476-248A-DF46-B86D-C65FB99E65D6}" name="Total Estimado"/>
-    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{8D84DF19-8E9D-F142-A9AC-7A24842A641B}" name="Total Gasto" dataDxfId="17">
       <calculatedColumnFormula>F242</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D5755058-9ADB-FC4E-A2A1-840F8A68033E}" name="Estimado2" dataDxfId="16">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{69C7213D-B1FC-4147-AB24-B6A5182959DB}" name="Gasto" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS($C$2:$C$200,$B$2:$B$200,"Fase 1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{9EE9F271-6EA9-974A-B071-1EA2E0A604E5}" name="Estimado22" dataDxfId="14">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{9890D8DA-7135-924B-8BB6-5C94EBAC1F51}" name="Gasto2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{50AF89FB-B074-2F40-A3B0-F87632DD2FF3}" name="Total" dataDxfId="12">
       <calculatedColumnFormula>Tabela3[[#This Row],[Total Estimado]]-Tabela3[[#This Row],[Total Gasto]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" ref="J6" si="1">F244</f>
-        <v>0.5756944444444444</v>
+        <v>0.86944444444444446</v>
       </c>
       <c r="K6" s="16">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="L6" s="16">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Cesar")</f>
-        <v>0.3611111111111111</v>
+        <v>0.44652777777777775</v>
       </c>
       <c r="M6" s="17">
         <f>Tabela3[[#This Row],[Total Estimado]]/2</f>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="N6" s="17">
         <f>SUMIFS($C$2:$C$200,$B$2:$B$200,"Semana 3",$A$2:$A$200,"Leonardo")</f>
-        <v>0.21458333333333335</v>
+        <v>0.42291666666666672</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>0.25763888888888897</v>
+        <v>-3.6111111111111094E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,15 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8.5416666666666655E-2</v>
+      </c>
       <c r="D35" s="2">
         <f>IF(B35 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1970,11 +1978,19 @@
       </c>
       <c r="F35" s="7">
         <f>IF(B35 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>8.5416666666666655E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D36" s="2">
         <f>IF(B36 = Fases!$A$2,Tabela2[[#This Row],[Tempo gasto]],0)</f>
         <v>0</v>
@@ -1985,7 +2001,7 @@
       </c>
       <c r="F36" s="7">
         <f>IF(B36 = Fases!$A$4,Tabela2[[#This Row],[Tempo gasto]],0)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5107,7 +5123,7 @@
       </c>
       <c r="F244" s="12">
         <f>SUBTOTAL(109,Tabela2[Consolidado fase 3])</f>
-        <v>0.5756944444444444</v>
+        <v>0.86944444444444446</v>
       </c>
     </row>
   </sheetData>
